--- a/Data/Discount_Cheker/CV Discount Check Master File 22.09.2025.xlsx
+++ b/Data/Discount_Cheker/CV Discount Check Master File 22.09.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\To be Consider\09 Sep-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C78BB64-5411-4C72-91CD-CB177B6688B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9303AA2D-9FC3-4CC8-94F2-EE511A41000E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
   </bookViews>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="D19" s="40">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$O$45,MATCH(Report!$C19,Sheet1!$B$2:$O$2,0),0),"")</f>
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2326,7 +2326,7 @@
         <v>90</v>
       </c>
       <c r="O3" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2373,7 +2373,7 @@
         <v>90</v>
       </c>
       <c r="O4" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2420,7 +2420,7 @@
         <v>90</v>
       </c>
       <c r="O5" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2467,7 +2467,7 @@
         <v>90</v>
       </c>
       <c r="O6" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2514,7 +2514,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2561,7 +2561,7 @@
         <v>90</v>
       </c>
       <c r="O8" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2608,7 +2608,7 @@
         <v>91</v>
       </c>
       <c r="O9" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2655,7 +2655,7 @@
         <v>98</v>
       </c>
       <c r="O10" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2702,7 +2702,7 @@
         <v>98</v>
       </c>
       <c r="O11" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2749,7 +2749,7 @@
         <v>92</v>
       </c>
       <c r="O12" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2796,7 +2796,7 @@
         <v>92</v>
       </c>
       <c r="O13" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2843,7 +2843,7 @@
         <v>92</v>
       </c>
       <c r="O14" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2890,7 +2890,7 @@
         <v>92</v>
       </c>
       <c r="O15" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2937,7 +2937,7 @@
         <v>92</v>
       </c>
       <c r="O16" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2984,7 +2984,7 @@
         <v>92</v>
       </c>
       <c r="O17" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3031,7 +3031,7 @@
         <v>92</v>
       </c>
       <c r="O18" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -3078,7 +3078,7 @@
         <v>93</v>
       </c>
       <c r="O19" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3125,7 +3125,7 @@
         <v>92</v>
       </c>
       <c r="O20" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3172,7 +3172,7 @@
         <v>95</v>
       </c>
       <c r="O21" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3219,7 +3219,7 @@
         <v>94</v>
       </c>
       <c r="O22" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3266,7 +3266,7 @@
         <v>94</v>
       </c>
       <c r="O23" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3313,7 +3313,7 @@
         <v>94</v>
       </c>
       <c r="O24" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3360,7 +3360,7 @@
         <v>94</v>
       </c>
       <c r="O25" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3407,7 +3407,7 @@
         <v>94</v>
       </c>
       <c r="O26" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3454,7 +3454,7 @@
         <v>94</v>
       </c>
       <c r="O27" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3501,7 +3501,7 @@
         <v>94</v>
       </c>
       <c r="O28" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3548,7 +3548,7 @@
         <v>95</v>
       </c>
       <c r="O29" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3595,7 +3595,7 @@
         <v>96</v>
       </c>
       <c r="O30" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3642,7 +3642,7 @@
         <v>96</v>
       </c>
       <c r="O31" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3689,7 +3689,7 @@
         <v>96</v>
       </c>
       <c r="O32" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3736,7 +3736,7 @@
         <v>96</v>
       </c>
       <c r="O33" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3783,7 +3783,7 @@
         <v>96</v>
       </c>
       <c r="O34" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3830,7 +3830,7 @@
         <v>97</v>
       </c>
       <c r="O35" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3877,7 +3877,7 @@
         <v>97</v>
       </c>
       <c r="O36" s="37">
-        <v>40000</v>
+        <v>35000</v>
       </c>
     </row>
   </sheetData>
@@ -4124,9 +4124,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4353,19 +4356,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4390,9 +4389,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>